--- a/generadas/LEBAC 63 DIAS TNC PJ-1.xlsx
+++ b/generadas/LEBAC 63 DIAS TNC PJ-1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t xml:space="preserve">     Licitación Letras del Banco Central de la República Argentina (BCRA) en Pesos</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Fecha:</t>
   </si>
   <si>
-    <t>26-Apr-2016</t>
+    <t>31-May-2016</t>
   </si>
   <si>
     <t>CÓDIGO AGENTE:</t>
@@ -70,10 +70,16 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>30-69074329-5</t>
-  </si>
-  <si>
-    <t>30-71101580-5</t>
+    <t>30-70748015-3</t>
+  </si>
+  <si>
+    <t>30-68079080-5</t>
+  </si>
+  <si>
+    <t>30-68485575-8</t>
+  </si>
+  <si>
+    <t>30-68938765-5</t>
   </si>
   <si>
     <t>TOTAL:</t>
@@ -1190,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="18">
-        <v>370000</v>
+        <v>381000</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="37" t="s">
@@ -1204,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="22">
-        <v>2500000</v>
+        <v>432000</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="33" t="s">
@@ -1217,9 +1223,13 @@
       <c r="A16" s="21">
         <v>3</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="22">
+        <v>1000000</v>
+      </c>
       <c r="C16" s="23"/>
-      <c r="D16" s="33"/>
+      <c r="D16" s="33" t="s">
+        <v>19</v>
+      </c>
       <c r="E16" s="34"/>
       <c r="F16" s="24"/>
     </row>
@@ -1227,9 +1237,13 @@
       <c r="A17" s="21">
         <v>4</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="22">
+        <v>38000</v>
+      </c>
       <c r="C17" s="23"/>
-      <c r="D17" s="33"/>
+      <c r="D17" s="33" t="s">
+        <v>19</v>
+      </c>
       <c r="E17" s="34"/>
       <c r="F17" s="24"/>
     </row>
@@ -1237,9 +1251,13 @@
       <c r="A18" s="21">
         <v>5</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="22">
+        <v>489000</v>
+      </c>
       <c r="C18" s="23"/>
-      <c r="D18" s="33"/>
+      <c r="D18" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="E18" s="34"/>
       <c r="F18" s="24"/>
     </row>
@@ -1295,7 +1313,7 @@
     </row>
     <row r="24" spans="1:7" customHeight="1" ht="21">
       <c r="A24" s="27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B24" s="28" t="str">
         <f>SUM($B$14:$B$23)</f>
@@ -1305,7 +1323,7 @@
     <row r="25" spans="1:7" customHeight="1" ht="12"/>
     <row r="27" spans="1:7" customHeight="1" ht="18">
       <c r="D27" s="35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
@@ -1313,12 +1331,12 @@
     <row r="28" spans="1:7" customHeight="1" ht="3.75"/>
     <row r="29" spans="1:7" customHeight="1" ht="15.75">
       <c r="A29" s="29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:7" customHeight="1" ht="14.25">
       <c r="A30" s="36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -1328,7 +1346,7 @@
     </row>
     <row r="31" spans="1:7" customHeight="1" ht="27.75">
       <c r="A31" s="32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -1338,7 +1356,7 @@
     </row>
     <row r="32" spans="1:7" customHeight="1" ht="42.75">
       <c r="A32" s="32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -1348,7 +1366,7 @@
     </row>
     <row r="33" spans="1:7" customHeight="1" ht="14.25">
       <c r="A33" s="30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -1522,7 +1540,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.74803149606299" right="0.74803149606299" top="1.1811023622047" bottom="0.98425196850394" header="0.51" footer="0"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="1.18110236220472" bottom="0.984251968503937" header="0.51" footer="0"/>
   <pageSetup paperSize="1" orientation="portrait" scale="85" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="false">
     <oddHeader/>
